--- a/TestData/userTestdata.xlsx
+++ b/TestData/userTestdata.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10002</v>
+        <v>10006</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10003</v>
+        <v>10007</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
